--- a/DatosIta1/Jornada34Ita.xlsx
+++ b/DatosIta1/Jornada34Ita.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,10 +426,10 @@
         <v>2.5</v>
       </c>
       <c r="D1">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="E1">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -457,13 +457,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="D3">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="E3">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -474,13 +474,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="D4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="E4">
-        <v>6.35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,13 +491,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E5">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -508,13 +508,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="D6">
         <v>3.2</v>
       </c>
       <c r="E6">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -525,13 +525,13 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="D7">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="E7">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -542,13 +542,13 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>2.2999999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="D8">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="E8">
-        <v>3.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -559,13 +559,13 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E9">
-        <v>8.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -576,13 +576,13 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>2.4500000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E10">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
